--- a/input/test3.xlsx
+++ b/input/test3.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -340,7 +341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -411,4 +412,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>11</v>
+      </c>
+      <c r="C1">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>